--- a/simulations/cleaned_inclusion_exclusion/Meijboom_2021 IEC_clean/output/tables/time_to_discovery/tds_sim.xlsx
+++ b/simulations/cleaned_inclusion_exclusion/Meijboom_2021 IEC_clean/output/tables/time_to_discovery/tds_sim.xlsx
@@ -414,10 +414,10 @@
         <v>87</v>
       </c>
       <c r="C2">
-        <v>181</v>
+        <v>99</v>
       </c>
       <c r="D2">
-        <v>134</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -428,10 +428,10 @@
         <v>50</v>
       </c>
       <c r="C3">
-        <v>106</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -442,10 +442,10 @@
         <v>189</v>
       </c>
       <c r="C4">
-        <v>266</v>
+        <v>196</v>
       </c>
       <c r="D4">
-        <v>227.5</v>
+        <v>192.5</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -456,10 +456,10 @@
         <v>346</v>
       </c>
       <c r="C5">
-        <v>418</v>
+        <v>308</v>
       </c>
       <c r="D5">
-        <v>382</v>
+        <v>327</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -470,10 +470,10 @@
         <v>101</v>
       </c>
       <c r="C6">
-        <v>164</v>
+        <v>119</v>
       </c>
       <c r="D6">
-        <v>132.5</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -484,10 +484,10 @@
         <v>188</v>
       </c>
       <c r="C7">
-        <v>264</v>
+        <v>194</v>
       </c>
       <c r="D7">
-        <v>226</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -498,10 +498,10 @@
         <v>43</v>
       </c>
       <c r="C8">
-        <v>127</v>
+        <v>46</v>
       </c>
       <c r="D8">
-        <v>85</v>
+        <v>44.5</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -512,10 +512,10 @@
         <v>129</v>
       </c>
       <c r="C9">
-        <v>238</v>
+        <v>142</v>
       </c>
       <c r="D9">
-        <v>183.5</v>
+        <v>135.5</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -526,10 +526,10 @@
         <v>28</v>
       </c>
       <c r="C10">
-        <v>131</v>
+        <v>61</v>
       </c>
       <c r="D10">
-        <v>79.5</v>
+        <v>44.5</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -540,10 +540,10 @@
         <v>51</v>
       </c>
       <c r="C11">
-        <v>110</v>
+        <v>31</v>
       </c>
       <c r="D11">
-        <v>80.5</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -554,10 +554,10 @@
         <v>114</v>
       </c>
       <c r="C12">
-        <v>180</v>
+        <v>127</v>
       </c>
       <c r="D12">
-        <v>147</v>
+        <v>120.5</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -568,10 +568,10 @@
         <v>33</v>
       </c>
       <c r="C13">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="D13">
-        <v>67.5</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -582,10 +582,10 @@
         <v>205</v>
       </c>
       <c r="C14">
-        <v>279</v>
+        <v>217</v>
       </c>
       <c r="D14">
-        <v>242</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -596,10 +596,10 @@
         <v>243</v>
       </c>
       <c r="C15">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="D15">
-        <v>231.5</v>
+        <v>234.5</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -607,10 +607,10 @@
         <v>283</v>
       </c>
       <c r="C16">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="D16">
-        <v>95</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -621,10 +621,10 @@
         <v>25</v>
       </c>
       <c r="C17">
-        <v>101</v>
+        <v>24</v>
       </c>
       <c r="D17">
-        <v>63</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -635,10 +635,10 @@
         <v>81</v>
       </c>
       <c r="C18">
-        <v>143</v>
+        <v>49</v>
       </c>
       <c r="D18">
-        <v>112</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -649,10 +649,10 @@
         <v>27</v>
       </c>
       <c r="C19">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="D19">
-        <v>67</v>
+        <v>32.5</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -663,10 +663,10 @@
         <v>5</v>
       </c>
       <c r="C20">
-        <v>93</v>
+        <v>11</v>
       </c>
       <c r="D20">
-        <v>49</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -677,10 +677,10 @@
         <v>42</v>
       </c>
       <c r="C21">
-        <v>163</v>
+        <v>56</v>
       </c>
       <c r="D21">
-        <v>102.5</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -691,10 +691,10 @@
         <v>92</v>
       </c>
       <c r="C22">
-        <v>185</v>
+        <v>87</v>
       </c>
       <c r="D22">
-        <v>138.5</v>
+        <v>89.5</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -705,10 +705,10 @@
         <v>54</v>
       </c>
       <c r="C23">
-        <v>124</v>
+        <v>35</v>
       </c>
       <c r="D23">
-        <v>89</v>
+        <v>44.5</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -719,10 +719,10 @@
         <v>124</v>
       </c>
       <c r="C24">
-        <v>201</v>
+        <v>118</v>
       </c>
       <c r="D24">
-        <v>162.5</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -733,10 +733,10 @@
         <v>6</v>
       </c>
       <c r="C25">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="D25">
-        <v>49</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -747,10 +747,10 @@
         <v>113</v>
       </c>
       <c r="C26">
-        <v>203</v>
+        <v>106</v>
       </c>
       <c r="D26">
-        <v>158</v>
+        <v>109.5</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -761,10 +761,10 @@
         <v>26</v>
       </c>
       <c r="C27">
-        <v>112</v>
+        <v>33</v>
       </c>
       <c r="D27">
-        <v>69</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -775,10 +775,10 @@
         <v>45</v>
       </c>
       <c r="C28">
-        <v>170</v>
+        <v>65</v>
       </c>
       <c r="D28">
-        <v>107.5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -789,10 +789,10 @@
         <v>59</v>
       </c>
       <c r="C29">
-        <v>130</v>
+        <v>57</v>
       </c>
       <c r="D29">
-        <v>94.5</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -803,10 +803,10 @@
         <v>46</v>
       </c>
       <c r="C30">
-        <v>174</v>
+        <v>80</v>
       </c>
       <c r="D30">
-        <v>110</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -817,10 +817,10 @@
         <v>7</v>
       </c>
       <c r="C31">
-        <v>94</v>
+        <v>10</v>
       </c>
       <c r="D31">
-        <v>50.5</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -831,10 +831,10 @@
         <v>382</v>
       </c>
       <c r="C32">
-        <v>441</v>
+        <v>2</v>
       </c>
       <c r="D32">
-        <v>411.5</v>
+        <v>192</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -845,10 +845,10 @@
         <v>160</v>
       </c>
       <c r="C33">
-        <v>265</v>
+        <v>179</v>
       </c>
       <c r="D33">
-        <v>212.5</v>
+        <v>169.5</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -859,10 +859,10 @@
         <v>23</v>
       </c>
       <c r="C34">
-        <v>117</v>
+        <v>25</v>
       </c>
       <c r="D34">
-        <v>70</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -873,10 +873,10 @@
         <v>10</v>
       </c>
       <c r="C35">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="D35">
-        <v>54</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -887,10 +887,10 @@
         <v>84</v>
       </c>
       <c r="C36">
-        <v>156</v>
+        <v>97</v>
       </c>
       <c r="D36">
-        <v>120</v>
+        <v>90.5</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -901,10 +901,10 @@
         <v>29</v>
       </c>
       <c r="C37">
-        <v>114</v>
+        <v>37</v>
       </c>
       <c r="D37">
-        <v>71.5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -915,10 +915,10 @@
         <v>15</v>
       </c>
       <c r="C38">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="D38">
-        <v>49.5</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -929,7 +929,7 @@
         <v>90.61111111111111</v>
       </c>
       <c r="C39">
-        <v>168.8648648648649</v>
+        <v>82.97297297297297</v>
       </c>
     </row>
   </sheetData>
